--- a/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Email/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1441947565543072</v>
+        <v>0.1425925925925927</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2752808988764043</v>
+        <v>0.272222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3520599250936324</v>
+        <v>0.3518518518518512</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.382022471910112</v>
+        <v>0.3814814814814811</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3707865168539326</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7078651685393258</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9101123595505618</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9101123595505618</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.52808988764045</v>
+        <v>3.533333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>50.65168539325843</v>
+        <v>50.31111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>61.02247191011236</v>
+        <v>60.65555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>55.40449438202247</v>
+        <v>55.07777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2621722846441946</v>
+        <v>0.2629629629629628</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3108614232209734</v>
+        <v>0.3111111111111107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3970037453183518</v>
+        <v>0.3999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4232209737827712</v>
+        <v>0.4259259259259255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6853932584269663</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8089887640449438</v>
+        <v>0.8111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9213483146067416</v>
+        <v>0.9222222222222223</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9213483146067416</v>
+        <v>0.9222222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.741573033707865</v>
+        <v>3.722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>102.247191011236</v>
+        <v>101.3777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2621722846441946</v>
+        <v>0.2629629629629628</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3108614232209734</v>
+        <v>0.3111111111111107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3970037453183518</v>
+        <v>0.3999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4232209737827712</v>
+        <v>0.4259259259259255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6853932584269663</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8089887640449438</v>
+        <v>0.8111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9213483146067416</v>
+        <v>0.9222222222222223</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9213483146067416</v>
+        <v>0.9222222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.741573033707865</v>
+        <v>3.722222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>102.247191011236</v>
+        <v>101.3777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2996254681647937</v>
+        <v>0.2999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2996254681647937</v>
+        <v>0.2999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3501872659176025</v>
+        <v>0.3499999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8764044943820225</v>
+        <v>0.8777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8764044943820225</v>
+        <v>0.8777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.98876404494382</v>
+        <v>2.977777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>53.95505617977528</v>
+        <v>53.68888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08988764044943816</v>
+        <v>0.08888888888888885</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2284644194756554</v>
+        <v>0.2296296296296296</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2284644194756554</v>
+        <v>0.2296296296296296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2752808988764043</v>
+        <v>0.2759259259259257</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2752808988764043</v>
+        <v>0.2759259259259257</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2359550561797753</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5842696629213483</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5842696629213483</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.101123595505618</v>
+        <v>4.077777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>82.6067415730337</v>
+        <v>82.74444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.03558052434456929</v>
+        <v>0.03518518518518519</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.03558052434456929</v>
+        <v>0.03518518518518519</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.0898876404494382</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.0898876404494382</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>17.40449438202247</v>
+        <v>17.37777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>99.33707865168539</v>
+        <v>99.32222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>61.02247191011236</v>
+        <v>60.65555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>61.02247191011236</v>
+        <v>60.65555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2996254681647937</v>
+        <v>0.2999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2996254681647937</v>
+        <v>0.2999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3539325842696625</v>
+        <v>0.3537037037037032</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.383895131086142</v>
+        <v>0.3870370370370367</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8651685393258427</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8651685393258427</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.112359550561798</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>62.37078651685393</v>
+        <v>62.08888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1067415730337079</v>
+        <v>0.1092592592592593</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1067415730337079</v>
+        <v>0.1092592592592593</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2509363295880149</v>
+        <v>0.2518518518518518</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3089887640449436</v>
+        <v>0.3129629629629627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2808988764044944</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2808988764044944</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6629213483146067</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7640449438202247</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.01123595505618</v>
+        <v>4.977777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>64.8314606741573</v>
+        <v>64.68888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2846441947565541</v>
+        <v>0.2851851851851849</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3220973782771531</v>
+        <v>0.3222222222222218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.327715355805243</v>
+        <v>0.3277777777777773</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3614232209737823</v>
+        <v>0.3648148148148144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7415730337078652</v>
+        <v>0.7444444444444445</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8426966292134831</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8539325842696629</v>
+        <v>0.8555555555555555</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8539325842696629</v>
+        <v>0.8555555555555555</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.247191011235955</v>
+        <v>3.233333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>56.28089887640449</v>
+        <v>56.04444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09550561797752807</v>
+        <v>0.09444444444444443</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.3033707865168536</v>
+        <v>0.3037037037037033</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3127340823970034</v>
+        <v>0.3129629629629626</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3483146067415726</v>
+        <v>0.3481481481481477</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3707865168539322</v>
+        <v>0.37037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.247191011235955</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8089887640449438</v>
+        <v>0.8111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8426966292134831</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8426966292134831</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.685393258426966</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>108.9550561797753</v>
+        <v>108.1222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>61.02247191011236</v>
+        <v>60.65555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2696629213483144</v>
+        <v>0.2703703703703701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3014981273408237</v>
+        <v>0.3018518518518515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3876404494382019</v>
+        <v>0.3907407407407404</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3970037453183517</v>
+        <v>0.3999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7078651685393258</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7865168539325843</v>
+        <v>0.7888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.898876404494382</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>61.02247191011236</v>
+        <v>60.65555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2846441947565541</v>
+        <v>0.2851851851851849</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3220973782771531</v>
+        <v>0.3222222222222218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.327715355805243</v>
+        <v>0.3277777777777773</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3614232209737823</v>
+        <v>0.3648148148148144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7415730337078652</v>
+        <v>0.7444444444444445</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8426966292134831</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8539325842696629</v>
+        <v>0.8555555555555555</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8539325842696629</v>
+        <v>0.8555555555555555</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.247191011235955</v>
+        <v>3.233333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>56.28089887640449</v>
+        <v>56.04444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0692883895131086</v>
+        <v>0.06851851851851851</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.0692883895131086</v>
+        <v>0.06851851851851851</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.02247191011235955</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1685393258426966</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.1685393258426966</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.71910112359551</v>
+        <v>11.73333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>84.1685393258427</v>
+        <v>84.31111111111112</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2640449438202246</v>
+        <v>0.2648148148148147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2640449438202246</v>
+        <v>0.2648148148148147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2846441947565541</v>
+        <v>0.2851851851851849</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.327715355805243</v>
+        <v>0.3277777777777773</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6853932584269663</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6853932584269663</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7415730337078652</v>
+        <v>0.7444444444444445</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8426966292134831</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.662921348314607</v>
+        <v>3.644444444444444</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>67.88764044943821</v>
+        <v>67.98888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1441947565543072</v>
+        <v>0.1425925925925927</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2752808988764043</v>
+        <v>0.272222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3520599250936324</v>
+        <v>0.3518518518518512</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.382022471910112</v>
+        <v>0.3814814814814811</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3707865168539326</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7078651685393258</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9101123595505618</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9101123595505618</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.52808988764045</v>
+        <v>3.533333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>50.65168539325843</v>
+        <v>50.31111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01685393258426966</v>
+        <v>0.01666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2996254681647937</v>
+        <v>0.2999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.327715355805243</v>
+        <v>0.3277777777777773</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3707865168539323</v>
+        <v>0.3740740740740737</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3764044943820222</v>
+        <v>0.3796296296296293</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.0449438202247191</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8539325842696629</v>
+        <v>0.8555555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8651685393258427</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8651685393258427</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>72.30337078651685</v>
+        <v>72.17777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.03558052434456929</v>
+        <v>0.03518518518518519</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.03558052434456929</v>
+        <v>0.03518518518518519</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.0898876404494382</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.0898876404494382</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>17.40449438202247</v>
+        <v>17.37777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>99.33707865168539</v>
+        <v>99.32222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005617977528089887</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179776</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516853932584271</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1816479400749065</v>
+        <v>0.1833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.202247191011236</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3258426966292135</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3932584269662922</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.4719101123595505</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5280898876404494</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.91011235955056</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>125.4044943820225</v>
+        <v>124.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08988764044943816</v>
+        <v>0.08888888888888885</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2902621722846439</v>
+        <v>0.2907407407407404</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2902621722846439</v>
+        <v>0.2907407407407404</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3127340823970034</v>
+        <v>0.3129629629629626</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3164794007490633</v>
+        <v>0.3166666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2359550561797753</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.7528089887640449</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7528089887640449</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7640449438202247</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7752808988764045</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.337078651685393</v>
+        <v>3.322222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>118.5730337078652</v>
+        <v>117.8555555555556</v>
       </c>
     </row>
   </sheetData>
